--- a/main code/data/인벤.xlsx
+++ b/main code/data/인벤.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,32 +471,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>[기타]ㅎㅂ 99.784 % 확률로 유부남이 좋아하는 와이프 복장</t>
+          <t>[이슈]추미애 "영어실력도 닮은 꼴"</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2021.12.28 15:44</t>
+          <t>2021.12.29 16:35</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>드루버프좀</t>
+          <t>셸링</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>310</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -506,27 +506,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>[기타]요즘 유행하고 있는 10대들 유행어</t>
+          <t>[기타]아무 의미없는 알파카 짤</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2021.12.28 15:41</t>
+          <t>2021.12.29 16:33</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>내여자민메이</t>
+          <t>Busangiants</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>585</t>
+          <t>479</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>9</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -541,27 +541,27 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>[유머]능욕 레전드</t>
+          <t>[유머]Ssd 무료나눔 합니다</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>2021.12.28 15:39</t>
+          <t>2021.12.29 16:31</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Wndndn</t>
+          <t>Mythicasual</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>935</t>
+          <t>799</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>28</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -576,32 +576,32 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>[기타]후방) 러시아의 평온한 일상 (진짜 일상)</t>
+          <t>[감동](자랑글)마라톤대회 참가 했다가 포상을 받았네요</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>2021.12.28 15:36</t>
+          <t>2021.12.29 16:29</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>걱정없는인생</t>
+          <t>아이짱기여어</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1,339</t>
+          <t>786</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>9</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>9</t>
         </is>
       </c>
     </row>
@@ -611,32 +611,32 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>[유머]디즈니월드 에서 정체성을 찾은 아빠</t>
+          <t>[기타]월세 계산 어떻게?</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>2021.12.28 15:35</t>
+          <t>2021.12.29 16:26</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>달섭지롱</t>
+          <t>리바키</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1,132</t>
+          <t>1,055</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>40</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>0</t>
         </is>
       </c>
     </row>
@@ -646,27 +646,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>[유머]딸배 지능 수준</t>
+          <t>[기타]즐거운 눈길 라이딩</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>2021.12.28 15:34</t>
+          <t>2021.12.29 16:25</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>오징어의율자</t>
+          <t>빨간색감자</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1,033</t>
+          <t>786</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -681,32 +681,32 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>[이슈]김건희 "번역 잘못됐음 안 보면 그만, 지금 나보고 어쩌라고"</t>
+          <t>[이슈]허위경력 비교 체험 .Jpg</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2021.12.28 15:33</t>
+          <t>2021.12.29 16:22</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>티알렛</t>
+          <t>Busangiants</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>734</t>
+          <t>1,626</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>17</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>23</t>
         </is>
       </c>
     </row>
@@ -716,27 +716,27 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>[기타]과연 영화만남이 이루어졌을까.txt</t>
+          <t>[기타]옆집 관리인 아줌마한테 혼났다</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>2021.12.28 15:33</t>
+          <t>2021.12.29 16:20</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>삶이란계란</t>
+          <t>Busangiants</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>647</t>
+          <t>1,639</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>5</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -751,27 +751,27 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>[기타]애사심 안생기는 사원 레전드</t>
+          <t>[이슈]콜롬비아 여자가 본 한국</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>2021.12.28 15:30</t>
+          <t>2021.12.29 16:20</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>걱정없는인생</t>
+          <t>옆사마</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>1,393</t>
+          <t>1,640</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>18</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -786,27 +786,27 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>[기타]말이 잘통하지 않는 사람특징</t>
+          <t>[기타]품귀현상</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>2021.12.28 15:29</t>
+          <t>2021.12.29 16:19</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>삶이란계란</t>
+          <t>빨간색감자</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>922</t>
+          <t>1,114</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>3</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -821,27 +821,27 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>[유머]힘내라 김건희</t>
+          <t>[유머]북한은 코로나 0명임.</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>2021.12.28 15:29</t>
+          <t>2021.12.29 16:12</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>휴면아이디</t>
+          <t>이야르</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>820</t>
+          <t>1,311</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>24</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -856,557 +856,32 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>[계층]대기업 불륜시리즈3(국OOO)</t>
+          <t>[기타]미쳐버린 만신의 만화</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>2021.12.28 15:29</t>
+          <t>2021.12.29 16:11</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Wndndn</t>
+          <t>내여자민메이</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>1,485</t>
+          <t>1,599</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>15</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>[기타]ㅎㅂ 당신은 우파인가요? 좌파인가요?</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:29</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>드루버프좀</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>717</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>[기타]맘카페의 말빨</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:27</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>삶이란계란</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>952</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>[이슈]단독]이준석 "尹후보 측에서 요청하면 당연히 복귀 생각"</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:27</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>게임추천좀</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>525</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>[계층]ㅅㅇ)대기업 불륜시리즈2(신OOO)</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:27</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>Wndndn</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>1,421</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
           <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>[기타]잠이 솔솔 오는 댕댕이</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:26</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>내여자민메이</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>535</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>[이슈]"김건희씨에게도 기적만 일어날까요?"</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:26</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>셸링</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>456</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>[유머]하우돈 같은 여동생</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:25</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>사실난라쿤</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>1,219</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>[계층](ㅎㅂ) 과외하는데 성적이 더 떨어짐</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:25</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>달섭지롱</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>1,379</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>[계층]대기업 불륜시리즈1(삼전편)</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:24</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>Wndndn</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>1,435</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>[기타]남친대행알바 구함</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:23</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>삶이란계란</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>1,357</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>[계층]ㅇㅎ)사회적 거리두기</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:22</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>Wndndn</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>1,190</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>[유머]괴력의 할아버지</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:21</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>메롱알아리</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>1,041</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>[기타]수도관이 얼어붙은지 3일차...</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:20</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>시뇨라</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>1,338</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>31</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>[이슈]조국 "똑같이만 해라."</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:19</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>셸링</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>675</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>[기타]예쁜 여자들은 왜이리 겁이 많을까요</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:16</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>삶이란계란</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>1,331</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>0</t>
         </is>
       </c>
     </row>
